--- a/CANVAS.xlsx
+++ b/CANVAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm74966\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm74289\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Parceiros chave</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>doflamingoaf@gmail.com</t>
+  </si>
+  <si>
+    <t>Este eh um Teste</t>
+  </si>
+  <si>
+    <t>P/ GITHUB/BRANCH</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -419,6 +425,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,50 +461,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -782,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,36 +807,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="17" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="19"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -836,30 +845,30 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="14" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="14" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -868,30 +877,30 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="14" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="16"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="25"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -902,18 +911,18 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="14" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="16"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -928,12 +937,12 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -952,12 +961,12 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -976,12 +985,12 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1000,12 +1009,12 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1024,12 +1033,12 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1048,12 +1057,12 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1072,12 +1081,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1096,12 +1105,12 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1116,24 +1125,24 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="14" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17" t="s">
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -1144,22 +1153,22 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -1170,22 +1179,22 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="16"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -1196,24 +1205,24 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="14" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="14" t="s">
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="25"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -1224,18 +1233,18 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="14" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1378,56 +1387,56 @@
       <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="18" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="19"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="14" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="16"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="25"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -1584,88 +1593,91 @@
       <c r="T32" s="7"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
+      <c r="A34" s="19"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
         <v>74289</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23">
+    <row r="38" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
         <v>74966</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
         <v>74590</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
         <v>73841</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="19"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I13:L13"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="K24:T24"/>
@@ -1682,17 +1694,22 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="K25:T25"/>
     <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M16:P16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C37" r:id="rId1" display="mailto:Marquesdesouza.alexandre@gmail.com"/>
